--- a/po_analysis_by_asin/B01IEO05NU_po_data.xlsx
+++ b/po_analysis_by_asin/B01IEO05NU_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,209 +452,481 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>810</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1230</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45376</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>240</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45432</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1080</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45474</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>780</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1440</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>1080</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45572</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>840</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45593</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>3360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45600</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>660</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45607</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B61" t="n">
         <v>60</v>
       </c>
     </row>
@@ -669,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,73 +963,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1710</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2190</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>720</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>780</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1680</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>900</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2520</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>840</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>4080</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B01IEO05NU_po_data.xlsx
+++ b/po_analysis_by_asin/B01IEO05NU_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -957,7 +958,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1111,6 +1112,999 @@
       </c>
       <c r="B20" t="n">
         <v>4080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-509.268071911785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>712.25095289068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>146</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-491.531119671411</v>
+      </c>
+      <c r="D3" t="n">
+        <v>777.2163807951175</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>158</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-465.9466193307448</v>
+      </c>
+      <c r="D4" t="n">
+        <v>785.0201682969018</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>164</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-458.009479288362</v>
+      </c>
+      <c r="D5" t="n">
+        <v>786.231914104674</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>170</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-449.0512081206953</v>
+      </c>
+      <c r="D6" t="n">
+        <v>768.835534574087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>176</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-497.6577358887093</v>
+      </c>
+      <c r="D7" t="n">
+        <v>786.986147579642</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>182</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-427.2892466958896</v>
+      </c>
+      <c r="D8" t="n">
+        <v>794.4503047645338</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>188</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-423.165102210582</v>
+      </c>
+      <c r="D9" t="n">
+        <v>817.6915971324016</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>194</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-436.2271050565666</v>
+      </c>
+      <c r="D10" t="n">
+        <v>798.5954764017375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-427.594496131109</v>
+      </c>
+      <c r="D11" t="n">
+        <v>808.1691037888921</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>206</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-400.3411246384236</v>
+      </c>
+      <c r="D12" t="n">
+        <v>847.402668867808</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>212</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-391.6865867693408</v>
+      </c>
+      <c r="D13" t="n">
+        <v>790.1340420051923</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>218</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-409.3101970880464</v>
+      </c>
+      <c r="D14" t="n">
+        <v>798.8647431343283</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>230</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-382.5146302777541</v>
+      </c>
+      <c r="D15" t="n">
+        <v>848.8764103560603</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>236</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-360.4998310525507</v>
+      </c>
+      <c r="D16" t="n">
+        <v>818.8410860535673</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>242</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-397.8703710114086</v>
+      </c>
+      <c r="D17" t="n">
+        <v>829.064493473447</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>248</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-373.0481022033462</v>
+      </c>
+      <c r="D18" t="n">
+        <v>839.0514536331451</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>254</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-357.9141494888169</v>
+      </c>
+      <c r="D19" t="n">
+        <v>866.342418004322</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>272</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-329.2674559925852</v>
+      </c>
+      <c r="D20" t="n">
+        <v>904.9654144095946</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>278</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-315.9263550699239</v>
+      </c>
+      <c r="D21" t="n">
+        <v>873.4200801761807</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>284</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-336.1506758462365</v>
+      </c>
+      <c r="D22" t="n">
+        <v>918.9792755930115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>290</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-314.6538023276768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>944.0806703975377</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>302</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-331.6798766518637</v>
+      </c>
+      <c r="D24" t="n">
+        <v>946.0528716741946</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>327</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-268.964966886407</v>
+      </c>
+      <c r="D25" t="n">
+        <v>944.1338948131227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>333</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-281.0871343990136</v>
+      </c>
+      <c r="D26" t="n">
+        <v>945.6077467513425</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>339</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-282.935663425704</v>
+      </c>
+      <c r="D27" t="n">
+        <v>970.0563790404212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>345</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-301.6550056539739</v>
+      </c>
+      <c r="D28" t="n">
+        <v>954.8717558270615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>351</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-229.8205563213764</v>
+      </c>
+      <c r="D29" t="n">
+        <v>956.6508489782531</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>357</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-239.6449178320759</v>
+      </c>
+      <c r="D30" t="n">
+        <v>936.1099272530207</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>363</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-228.5552322003315</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1037.81592287088</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>375</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-268.1100296678053</v>
+      </c>
+      <c r="D32" t="n">
+        <v>962.6374964395632</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>381</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-241.9194848718516</v>
+      </c>
+      <c r="D33" t="n">
+        <v>977.7000383339646</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>387</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-249.7097474160508</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1001.758753715371</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>393</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-217.5626093175038</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1022.57490408559</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>484</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-138.5183560656088</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1116.991522617708</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>496</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-136.7846062716652</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1176.418841370063</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>502</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-107.5119296921899</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1082.278572361845</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>508</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-149.7839561250309</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1074.808020361987</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>514</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-111.8654180645876</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1126.066809689185</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>520</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-75.26331783992453</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1155.560661555817</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>526</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-98.79775179137216</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1176.448424922013</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>532</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-58.05462879824547</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1172.974179912281</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>538</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-64.09737373388973</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1129.469442836296</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>544</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-71.55420556425791</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1211.400887929414</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>556</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-96.30452366921745</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1183.603409069414</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>562</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-72.52098184444615</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1148.408374160739</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>568</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-86.41441264484511</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1184.573825902956</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>574</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11.77805006126809</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1171.437419248963</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>580</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-32.76338718178789</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1158.358805118404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>592</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.556981587721496</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1196.599309852892</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>598</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-30.86743696245978</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1242.403157644938</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>604</v>
+      </c>
+      <c r="C53" t="n">
+        <v>18.41471679263269</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1294.925293447056</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>610</v>
+      </c>
+      <c r="C54" t="n">
+        <v>28.12932776450888</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1229.982882044827</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>616</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18.80104238263547</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1177.130782183918</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>653</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-24.52633651268444</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1250.443414078641</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>659</v>
+      </c>
+      <c r="C57" t="n">
+        <v>46.72075478060982</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1254.759726732266</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>695</v>
+      </c>
+      <c r="C58" t="n">
+        <v>91.40405642949368</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1300.613357348439</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>713</v>
+      </c>
+      <c r="C59" t="n">
+        <v>41.97761620605446</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1309.863927246907</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>719</v>
+      </c>
+      <c r="C60" t="n">
+        <v>116.7145101006782</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1331.684719313594</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>725</v>
+      </c>
+      <c r="C61" t="n">
+        <v>86.13268544895072</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1376.476705840222</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>731</v>
+      </c>
+      <c r="C62" t="n">
+        <v>109.2834753926712</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1410.03226616954</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>737</v>
+      </c>
+      <c r="C63" t="n">
+        <v>107.0564663724158</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1377.02260667229</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>743</v>
+      </c>
+      <c r="C64" t="n">
+        <v>127.5446912317889</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1403.374447370524</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>749</v>
+      </c>
+      <c r="C65" t="n">
+        <v>141.1412178085606</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1371.112295456885</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>755</v>
+      </c>
+      <c r="C66" t="n">
+        <v>163.2921733326343</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1329.315718892214</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>761</v>
+      </c>
+      <c r="C67" t="n">
+        <v>141.5971799323459</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1364.964755295942</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>767</v>
+      </c>
+      <c r="C68" t="n">
+        <v>146.4327947073519</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1396.194937573095</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>773</v>
+      </c>
+      <c r="C69" t="n">
+        <v>170.2628451668542</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1367.334073799058</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B01IEO05NU_po_data.xlsx
+++ b/po_analysis_by_asin/B01IEO05NU_po_data.xlsx
@@ -1125,7 +1125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,16 +1144,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1162,12 +1152,6 @@
       <c r="B2" t="n">
         <v>140</v>
       </c>
-      <c r="C2" t="n">
-        <v>-509.268071911785</v>
-      </c>
-      <c r="D2" t="n">
-        <v>712.25095289068</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1176,12 +1160,6 @@
       <c r="B3" t="n">
         <v>146</v>
       </c>
-      <c r="C3" t="n">
-        <v>-491.531119671411</v>
-      </c>
-      <c r="D3" t="n">
-        <v>777.2163807951175</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1190,12 +1168,6 @@
       <c r="B4" t="n">
         <v>158</v>
       </c>
-      <c r="C4" t="n">
-        <v>-465.9466193307448</v>
-      </c>
-      <c r="D4" t="n">
-        <v>785.0201682969018</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1204,12 +1176,6 @@
       <c r="B5" t="n">
         <v>164</v>
       </c>
-      <c r="C5" t="n">
-        <v>-458.009479288362</v>
-      </c>
-      <c r="D5" t="n">
-        <v>786.231914104674</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1218,12 +1184,6 @@
       <c r="B6" t="n">
         <v>170</v>
       </c>
-      <c r="C6" t="n">
-        <v>-449.0512081206953</v>
-      </c>
-      <c r="D6" t="n">
-        <v>768.835534574087</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1232,12 +1192,6 @@
       <c r="B7" t="n">
         <v>176</v>
       </c>
-      <c r="C7" t="n">
-        <v>-497.6577358887093</v>
-      </c>
-      <c r="D7" t="n">
-        <v>786.986147579642</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1246,12 +1200,6 @@
       <c r="B8" t="n">
         <v>182</v>
       </c>
-      <c r="C8" t="n">
-        <v>-427.2892466958896</v>
-      </c>
-      <c r="D8" t="n">
-        <v>794.4503047645338</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1260,12 +1208,6 @@
       <c r="B9" t="n">
         <v>188</v>
       </c>
-      <c r="C9" t="n">
-        <v>-423.165102210582</v>
-      </c>
-      <c r="D9" t="n">
-        <v>817.6915971324016</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1274,12 +1216,6 @@
       <c r="B10" t="n">
         <v>194</v>
       </c>
-      <c r="C10" t="n">
-        <v>-436.2271050565666</v>
-      </c>
-      <c r="D10" t="n">
-        <v>798.5954764017375</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1288,12 +1224,6 @@
       <c r="B11" t="n">
         <v>200</v>
       </c>
-      <c r="C11" t="n">
-        <v>-427.594496131109</v>
-      </c>
-      <c r="D11" t="n">
-        <v>808.1691037888921</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1302,12 +1232,6 @@
       <c r="B12" t="n">
         <v>206</v>
       </c>
-      <c r="C12" t="n">
-        <v>-400.3411246384236</v>
-      </c>
-      <c r="D12" t="n">
-        <v>847.402668867808</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1316,12 +1240,6 @@
       <c r="B13" t="n">
         <v>212</v>
       </c>
-      <c r="C13" t="n">
-        <v>-391.6865867693408</v>
-      </c>
-      <c r="D13" t="n">
-        <v>790.1340420051923</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1330,12 +1248,6 @@
       <c r="B14" t="n">
         <v>218</v>
       </c>
-      <c r="C14" t="n">
-        <v>-409.3101970880464</v>
-      </c>
-      <c r="D14" t="n">
-        <v>798.8647431343283</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1344,12 +1256,6 @@
       <c r="B15" t="n">
         <v>230</v>
       </c>
-      <c r="C15" t="n">
-        <v>-382.5146302777541</v>
-      </c>
-      <c r="D15" t="n">
-        <v>848.8764103560603</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1358,12 +1264,6 @@
       <c r="B16" t="n">
         <v>236</v>
       </c>
-      <c r="C16" t="n">
-        <v>-360.4998310525507</v>
-      </c>
-      <c r="D16" t="n">
-        <v>818.8410860535673</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1372,12 +1272,6 @@
       <c r="B17" t="n">
         <v>242</v>
       </c>
-      <c r="C17" t="n">
-        <v>-397.8703710114086</v>
-      </c>
-      <c r="D17" t="n">
-        <v>829.064493473447</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1386,12 +1280,6 @@
       <c r="B18" t="n">
         <v>248</v>
       </c>
-      <c r="C18" t="n">
-        <v>-373.0481022033462</v>
-      </c>
-      <c r="D18" t="n">
-        <v>839.0514536331451</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1400,12 +1288,6 @@
       <c r="B19" t="n">
         <v>254</v>
       </c>
-      <c r="C19" t="n">
-        <v>-357.9141494888169</v>
-      </c>
-      <c r="D19" t="n">
-        <v>866.342418004322</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1414,12 +1296,6 @@
       <c r="B20" t="n">
         <v>272</v>
       </c>
-      <c r="C20" t="n">
-        <v>-329.2674559925852</v>
-      </c>
-      <c r="D20" t="n">
-        <v>904.9654144095946</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1428,12 +1304,6 @@
       <c r="B21" t="n">
         <v>278</v>
       </c>
-      <c r="C21" t="n">
-        <v>-315.9263550699239</v>
-      </c>
-      <c r="D21" t="n">
-        <v>873.4200801761807</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1442,12 +1312,6 @@
       <c r="B22" t="n">
         <v>284</v>
       </c>
-      <c r="C22" t="n">
-        <v>-336.1506758462365</v>
-      </c>
-      <c r="D22" t="n">
-        <v>918.9792755930115</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1456,12 +1320,6 @@
       <c r="B23" t="n">
         <v>290</v>
       </c>
-      <c r="C23" t="n">
-        <v>-314.6538023276768</v>
-      </c>
-      <c r="D23" t="n">
-        <v>944.0806703975377</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1470,12 +1328,6 @@
       <c r="B24" t="n">
         <v>302</v>
       </c>
-      <c r="C24" t="n">
-        <v>-331.6798766518637</v>
-      </c>
-      <c r="D24" t="n">
-        <v>946.0528716741946</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1484,12 +1336,6 @@
       <c r="B25" t="n">
         <v>327</v>
       </c>
-      <c r="C25" t="n">
-        <v>-268.964966886407</v>
-      </c>
-      <c r="D25" t="n">
-        <v>944.1338948131227</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1498,12 +1344,6 @@
       <c r="B26" t="n">
         <v>333</v>
       </c>
-      <c r="C26" t="n">
-        <v>-281.0871343990136</v>
-      </c>
-      <c r="D26" t="n">
-        <v>945.6077467513425</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1512,12 +1352,6 @@
       <c r="B27" t="n">
         <v>339</v>
       </c>
-      <c r="C27" t="n">
-        <v>-282.935663425704</v>
-      </c>
-      <c r="D27" t="n">
-        <v>970.0563790404212</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1526,12 +1360,6 @@
       <c r="B28" t="n">
         <v>345</v>
       </c>
-      <c r="C28" t="n">
-        <v>-301.6550056539739</v>
-      </c>
-      <c r="D28" t="n">
-        <v>954.8717558270615</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1540,12 +1368,6 @@
       <c r="B29" t="n">
         <v>351</v>
       </c>
-      <c r="C29" t="n">
-        <v>-229.8205563213764</v>
-      </c>
-      <c r="D29" t="n">
-        <v>956.6508489782531</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1554,12 +1376,6 @@
       <c r="B30" t="n">
         <v>357</v>
       </c>
-      <c r="C30" t="n">
-        <v>-239.6449178320759</v>
-      </c>
-      <c r="D30" t="n">
-        <v>936.1099272530207</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1568,12 +1384,6 @@
       <c r="B31" t="n">
         <v>363</v>
       </c>
-      <c r="C31" t="n">
-        <v>-228.5552322003315</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1037.81592287088</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1582,12 +1392,6 @@
       <c r="B32" t="n">
         <v>375</v>
       </c>
-      <c r="C32" t="n">
-        <v>-268.1100296678053</v>
-      </c>
-      <c r="D32" t="n">
-        <v>962.6374964395632</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1596,12 +1400,6 @@
       <c r="B33" t="n">
         <v>381</v>
       </c>
-      <c r="C33" t="n">
-        <v>-241.9194848718516</v>
-      </c>
-      <c r="D33" t="n">
-        <v>977.7000383339646</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1610,12 +1408,6 @@
       <c r="B34" t="n">
         <v>387</v>
       </c>
-      <c r="C34" t="n">
-        <v>-249.7097474160508</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1001.758753715371</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1624,12 +1416,6 @@
       <c r="B35" t="n">
         <v>393</v>
       </c>
-      <c r="C35" t="n">
-        <v>-217.5626093175038</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1022.57490408559</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1638,12 +1424,6 @@
       <c r="B36" t="n">
         <v>484</v>
       </c>
-      <c r="C36" t="n">
-        <v>-138.5183560656088</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1116.991522617708</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1652,12 +1432,6 @@
       <c r="B37" t="n">
         <v>496</v>
       </c>
-      <c r="C37" t="n">
-        <v>-136.7846062716652</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1176.418841370063</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1666,12 +1440,6 @@
       <c r="B38" t="n">
         <v>502</v>
       </c>
-      <c r="C38" t="n">
-        <v>-107.5119296921899</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1082.278572361845</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1680,12 +1448,6 @@
       <c r="B39" t="n">
         <v>508</v>
       </c>
-      <c r="C39" t="n">
-        <v>-149.7839561250309</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1074.808020361987</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1694,12 +1456,6 @@
       <c r="B40" t="n">
         <v>514</v>
       </c>
-      <c r="C40" t="n">
-        <v>-111.8654180645876</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1126.066809689185</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1708,12 +1464,6 @@
       <c r="B41" t="n">
         <v>520</v>
       </c>
-      <c r="C41" t="n">
-        <v>-75.26331783992453</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1155.560661555817</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1722,12 +1472,6 @@
       <c r="B42" t="n">
         <v>526</v>
       </c>
-      <c r="C42" t="n">
-        <v>-98.79775179137216</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1176.448424922013</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1736,12 +1480,6 @@
       <c r="B43" t="n">
         <v>532</v>
       </c>
-      <c r="C43" t="n">
-        <v>-58.05462879824547</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1172.974179912281</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1750,12 +1488,6 @@
       <c r="B44" t="n">
         <v>538</v>
       </c>
-      <c r="C44" t="n">
-        <v>-64.09737373388973</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1129.469442836296</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1764,12 +1496,6 @@
       <c r="B45" t="n">
         <v>544</v>
       </c>
-      <c r="C45" t="n">
-        <v>-71.55420556425791</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1211.400887929414</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1778,12 +1504,6 @@
       <c r="B46" t="n">
         <v>556</v>
       </c>
-      <c r="C46" t="n">
-        <v>-96.30452366921745</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1183.603409069414</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1792,12 +1512,6 @@
       <c r="B47" t="n">
         <v>562</v>
       </c>
-      <c r="C47" t="n">
-        <v>-72.52098184444615</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1148.408374160739</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1806,12 +1520,6 @@
       <c r="B48" t="n">
         <v>568</v>
       </c>
-      <c r="C48" t="n">
-        <v>-86.41441264484511</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1184.573825902956</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1820,12 +1528,6 @@
       <c r="B49" t="n">
         <v>574</v>
       </c>
-      <c r="C49" t="n">
-        <v>11.77805006126809</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1171.437419248963</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1834,12 +1536,6 @@
       <c r="B50" t="n">
         <v>580</v>
       </c>
-      <c r="C50" t="n">
-        <v>-32.76338718178789</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1158.358805118404</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1848,12 +1544,6 @@
       <c r="B51" t="n">
         <v>592</v>
       </c>
-      <c r="C51" t="n">
-        <v>-1.556981587721496</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1196.599309852892</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1862,12 +1552,6 @@
       <c r="B52" t="n">
         <v>598</v>
       </c>
-      <c r="C52" t="n">
-        <v>-30.86743696245978</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1242.403157644938</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1876,12 +1560,6 @@
       <c r="B53" t="n">
         <v>604</v>
       </c>
-      <c r="C53" t="n">
-        <v>18.41471679263269</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1294.925293447056</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1890,12 +1568,6 @@
       <c r="B54" t="n">
         <v>610</v>
       </c>
-      <c r="C54" t="n">
-        <v>28.12932776450888</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1229.982882044827</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1904,12 +1576,6 @@
       <c r="B55" t="n">
         <v>616</v>
       </c>
-      <c r="C55" t="n">
-        <v>18.80104238263547</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1177.130782183918</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1918,12 +1584,6 @@
       <c r="B56" t="n">
         <v>653</v>
       </c>
-      <c r="C56" t="n">
-        <v>-24.52633651268444</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1250.443414078641</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1932,12 +1592,6 @@
       <c r="B57" t="n">
         <v>659</v>
       </c>
-      <c r="C57" t="n">
-        <v>46.72075478060982</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1254.759726732266</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1946,12 +1600,6 @@
       <c r="B58" t="n">
         <v>695</v>
       </c>
-      <c r="C58" t="n">
-        <v>91.40405642949368</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1300.613357348439</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1960,12 +1608,6 @@
       <c r="B59" t="n">
         <v>713</v>
       </c>
-      <c r="C59" t="n">
-        <v>41.97761620605446</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1309.863927246907</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1974,12 +1616,6 @@
       <c r="B60" t="n">
         <v>719</v>
       </c>
-      <c r="C60" t="n">
-        <v>116.7145101006782</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1331.684719313594</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1988,12 +1624,6 @@
       <c r="B61" t="n">
         <v>725</v>
       </c>
-      <c r="C61" t="n">
-        <v>86.13268544895072</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1376.476705840222</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2002,12 +1632,6 @@
       <c r="B62" t="n">
         <v>731</v>
       </c>
-      <c r="C62" t="n">
-        <v>109.2834753926712</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1410.03226616954</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2016,12 +1640,6 @@
       <c r="B63" t="n">
         <v>737</v>
       </c>
-      <c r="C63" t="n">
-        <v>107.0564663724158</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1377.02260667229</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2030,12 +1648,6 @@
       <c r="B64" t="n">
         <v>743</v>
       </c>
-      <c r="C64" t="n">
-        <v>127.5446912317889</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1403.374447370524</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2044,12 +1656,6 @@
       <c r="B65" t="n">
         <v>749</v>
       </c>
-      <c r="C65" t="n">
-        <v>141.1412178085606</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1371.112295456885</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2058,12 +1664,6 @@
       <c r="B66" t="n">
         <v>755</v>
       </c>
-      <c r="C66" t="n">
-        <v>163.2921733326343</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1329.315718892214</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2072,12 +1672,6 @@
       <c r="B67" t="n">
         <v>761</v>
       </c>
-      <c r="C67" t="n">
-        <v>141.5971799323459</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1364.964755295942</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2086,12 +1680,6 @@
       <c r="B68" t="n">
         <v>767</v>
       </c>
-      <c r="C68" t="n">
-        <v>146.4327947073519</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1396.194937573095</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2099,12 +1687,6 @@
       </c>
       <c r="B69" t="n">
         <v>773</v>
-      </c>
-      <c r="C69" t="n">
-        <v>170.2628451668542</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1367.334073799058</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B01IEO05NU_po_data.xlsx
+++ b/po_analysis_by_asin/B01IEO05NU_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,6 +931,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -942,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,6 +1122,14 @@
         <v>4080</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1125,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,7 +1166,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -1158,7 +1174,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
@@ -1166,7 +1182,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -1174,7 +1190,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -1182,7 +1198,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -1190,7 +1206,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -1198,7 +1214,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -1206,7 +1222,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
@@ -1214,7 +1230,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -1222,7 +1238,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12">
@@ -1230,7 +1246,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13">
@@ -1238,7 +1254,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14">
@@ -1246,7 +1262,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15">
@@ -1254,7 +1270,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
@@ -1262,7 +1278,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17">
@@ -1270,7 +1286,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -1278,7 +1294,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
@@ -1286,7 +1302,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20">
@@ -1294,7 +1310,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1318,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
@@ -1310,7 +1326,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23">
@@ -1318,7 +1334,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24">
@@ -1326,7 +1342,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25">
@@ -1334,7 +1350,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26">
@@ -1342,7 +1358,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27">
@@ -1350,7 +1366,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28">
@@ -1358,7 +1374,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29">
@@ -1366,7 +1382,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30">
@@ -1374,7 +1390,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1398,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32">
@@ -1390,7 +1406,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33">
@@ -1398,7 +1414,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34">
@@ -1406,7 +1422,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1430,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1438,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37">
@@ -1430,7 +1446,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38">
@@ -1438,7 +1454,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>502</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39">
@@ -1446,7 +1462,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>508</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40">
@@ -1454,7 +1470,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>514</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41">
@@ -1462,7 +1478,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42">
@@ -1470,7 +1486,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43">
@@ -1478,7 +1494,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="44">
@@ -1486,7 +1502,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45">
@@ -1494,7 +1510,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1518,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>556</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47">
@@ -1510,7 +1526,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>562</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48">
@@ -1518,7 +1534,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>568</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49">
@@ -1526,7 +1542,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>574</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50">
@@ -1534,7 +1550,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>580</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51">
@@ -1542,7 +1558,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>592</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52">
@@ -1550,7 +1566,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>598</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53">
@@ -1558,7 +1574,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>604</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54">
@@ -1566,7 +1582,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>610</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55">
@@ -1574,7 +1590,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>616</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56">
@@ -1582,7 +1598,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>653</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57">
@@ -1590,7 +1606,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>659</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58">
@@ -1598,7 +1614,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>695</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59">
@@ -1606,7 +1622,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>713</v>
+        <v>670</v>
       </c>
     </row>
     <row r="60">
@@ -1614,7 +1630,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>719</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61">
@@ -1622,71 +1638,79 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>725</v>
+        <v>681</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>731</v>
+        <v>719</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>737</v>
+        <v>724</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>755</v>
+        <v>740</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>773</v>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>762</v>
       </c>
     </row>
   </sheetData>
